--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_billing.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_billing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Purchase Billing Report</t>
   </si>
@@ -58,43 +58,40 @@
     <t xml:space="preserve">Billing Sent Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Supplier Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Document Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Contract Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Invoice Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Posting Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Receipt Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Billing Responsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Document Ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO Contract Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Invoice Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Posting Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Receipt Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice Responsible</t>
   </si>
   <si>
     <t xml:space="preserve">Document Status</t>
@@ -263,7 +260,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -275,21 +272,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="26.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="28.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="30.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="30.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="4" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,7 +305,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
@@ -320,7 +316,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -398,9 +394,6 @@
       </c>
       <c r="Q10" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
